--- a/biology/Zoologie/Alcedinidae/Alcedinidae.xlsx
+++ b/biology/Zoologie/Alcedinidae/Alcedinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alcédinidés ou Alcedinidae forment une famille d'oiseaux plus connus sous les noms de martins-pêcheurs et martins-chasseurs.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux compacts de petite taille (10 à 15 cm), au bec droit et long, en forme de poignard. Leurs pattes sont courtes, et ils portent un plumage aux couleurs vives.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmopolites, ils fréquentent surtout les forêts et les zones boisées, souvent près de l'eau ; quelques espèces vivent en régions arborées éloignées de l'eau, et une autre espèce dans les déserts à broussailles.
 </t>
@@ -573,14 +589,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Alcédinidés sont subdivisés en trois sous-familles temporairement considérées comme des familles séparées dans la classification de Sibley-Ahlquist :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Alcédinidés sont subdivisés en trois sous-familles temporairement considérées comme des familles séparées dans la classification de Sibley-Ahlquist :
 les halcyoninés ;
 les alcédininés ;
-les cérylinés.
-Liste alphabétique des genres
-Actenoides Bonaparte, 1850
+les cérylinés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alcedinidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcedinidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Actenoides Bonaparte, 1850
 Alcedo Linnaeus, 1758
 Caridonax Cabanis &amp; Heine, 1860
 Ceryle Boie, 1828
@@ -598,9 +650,43 @@
 Pelargopsis Gloger, 1841
 Syma	Lesson, 1827
 Tanysiptera Vigors, 1825
-Todiramphus Lesson, 1827
-Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+Todiramphus Lesson, 1827</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alcedinidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcedinidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
 Actenoides monachus – Martin-chasseur moine
 Actenoides princeps – Martin-chasseur royal
@@ -696,7 +782,7 @@
 Megaceryle alcyon – Martin-pêcheur d'Amérique
 Ceryle rudis – Martin-pêcheur pie
 Arbre phylogénique
-Noter que la situation dans la famille des Alcininés est encore instable. Par exemple, la position de Corythornis est encore débattue[2]. Par ailleurs, il semble que la classification classique des genres Alcedo et Ceyx soit erronée, les espèces de ces deux genres étant mêlées sur le plan phylogénétique[3].
+Noter que la situation dans la famille des Alcininés est encore instable. Par exemple, la position de Corythornis est encore débattue. Par ailleurs, il semble que la classification classique des genres Alcedo et Ceyx soit erronée, les espèces de ces deux genres étant mêlées sur le plan phylogénétique.
 Arbre phylogénique des Alcinidés par genre
 d'après Tree of Life : Alcedinidae  et worldbirdnames.org Index : Ordre des Coraciformes, Famille des Alcinidés.
 Arbre phylogénique des genres Alcedo et Ceyx par espèces
@@ -706,70 +792,153 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Alcedinidae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alcedinidae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mythologie et symbolisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Chez les Anciens : l'alcyon
-Chez les Anciens, oiseau dont la rencontre passait pour un présage de calme et de paix, car il fait son nid pendant les « jours alcyoniens », c’est-à-dire sept jours avant et sept jours après le solstice d’hiver, pendant lesquels la mer est calme. Ce mot d'origine grecque se trouve pour la première fois à l'écrit en 1265.
-Étymologie (Littré)
-« Termes grecs, l'un dérive de celui qui signifie la mer (pour les rapports de ce mot, voy. SEL), et l'autre se traduit par qui fait ses petits, du verbe grec faire des petits, parce que l'alcyon fait son nid sur la mer. M. Benfey, II, 165, rattache la dernière partie du mot au terme grec signifiant chien (voy. CHIEN). À cause de l'étymologie quelques-uns écrivent en latin Halcyon et Halcyone. »
-Oiseau « fabuleux » ?
-La définition des ouvrages de langue française commence toujours par « oiseau fabuleux », ce qui est inexact, car les alcyons, qu’on connaît mieux sous le nom martin-pêcheur, existent bien. Seuls les dictionnaires de langue anglaise font le lien avec kingfisher (« martin-pêcheur ») dans leur définition, qui est le terme courant. C’est pourquoi on évite les tournures du genre mythical bird (« oiseau fabuleux »). Il ne semble pourtant pas qu’on ait toujours commis cette erreur en français, car le Littré, le Dictionnaire de l’Académie (1762) et le Furetière décrivent l’alcyon comme un oiseau qui existe bel et bien. Étant donné que les dictionnaires de langue française et de langue anglaise décrivent les pouvoirs merveilleux de cet oiseau seulement dans la rubrique alcyon (halcyon), on utilisera ce terme de préférence à tout autre pour mettre l’accent là-dessus.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chez les Anciens : l'alcyon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les Anciens, oiseau dont la rencontre passait pour un présage de calme et de paix, car il fait son nid pendant les « jours alcyoniens », c’est-à-dire sept jours avant et sept jours après le solstice d’hiver, pendant lesquels la mer est calme. Ce mot d'origine grecque se trouve pour la première fois à l'écrit en 1265.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alcedinidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcedinidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mythologie et symbolisme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chez les Anciens : l'alcyon</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Étymologie (Littré)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>« Termes grecs, l'un dérive de celui qui signifie la mer (pour les rapports de ce mot, voy. SEL), et l'autre se traduit par qui fait ses petits, du verbe grec faire des petits, parce que l'alcyon fait son nid sur la mer. M. Benfey, II, 165, rattache la dernière partie du mot au terme grec signifiant chien (voy. CHIEN). À cause de l'étymologie quelques-uns écrivent en latin Halcyon et Halcyone. »</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alcedinidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcedinidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mythologie et symbolisme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Oiseau « fabuleux » ?</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La définition des ouvrages de langue française commence toujours par « oiseau fabuleux », ce qui est inexact, car les alcyons, qu’on connaît mieux sous le nom martin-pêcheur, existent bien. Seuls les dictionnaires de langue anglaise font le lien avec kingfisher (« martin-pêcheur ») dans leur définition, qui est le terme courant. C’est pourquoi on évite les tournures du genre mythical bird (« oiseau fabuleux »). Il ne semble pourtant pas qu’on ait toujours commis cette erreur en français, car le Littré, le Dictionnaire de l’Académie (1762) et le Furetière décrivent l’alcyon comme un oiseau qui existe bel et bien. Étant donné que les dictionnaires de langue française et de langue anglaise décrivent les pouvoirs merveilleux de cet oiseau seulement dans la rubrique alcyon (halcyon), on utilisera ce terme de préférence à tout autre pour mettre l’accent là-dessus.
 « On appelle les jours Alcyoniens, ceux pendant lesquels les Alcyons font leur nid, qui sont vers le solstice d'hyver. » (Furetière)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Alcedinidae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alcedinidae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les Chinois
-Les Chinois utilisaient des plumes de martin-pêcheurs pour en faire des épingles à cheveux ou des couronnes et appelaient cet art le tian-tsui.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chez les Chinois</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chinois utilisaient des plumes de martin-pêcheurs pour en faire des épingles à cheveux ou des couronnes et appelaient cet art le tian-tsui.
 </t>
         </is>
       </c>
